--- a/secondo anno/esami inverno.xlsx
+++ b/secondo anno/esami inverno.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\secondo anno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C78E11F-EC48-4424-A23D-DA632AC0D03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B30C1-E5E7-4E3B-8879-26DBD5E2682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D259DD6-B8B7-46F8-85D7-AE2B8E928347}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D259DD6-B8B7-46F8-85D7-AE2B8E928347}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -139,6 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -458,18 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC35247F-2FE7-4BD7-B80B-3FC3E80C724E}">
-  <dimension ref="A6:K16"/>
+  <dimension ref="A6:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="P16:Q18"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -495,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -517,14 +524,14 @@
       <c r="G7" s="1">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -550,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -576,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>29</v>
       </c>
@@ -590,103 +597,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11">
+        <v>9</v>
+      </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>8</v>
-      </c>
-      <c r="E13" s="11">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1">
-        <v>24</v>
-      </c>
-      <c r="G15" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1">
         <v>29</v>
       </c>
     </row>

--- a/secondo anno/esami inverno.xlsx
+++ b/secondo anno/esami inverno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\secondo anno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B30C1-E5E7-4E3B-8879-26DBD5E2682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044E7CA7-497B-4C0E-B166-7A803F604BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D259DD6-B8B7-46F8-85D7-AE2B8E928347}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D259DD6-B8B7-46F8-85D7-AE2B8E928347}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -146,12 +146,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{935C8DAF-F82D-4714-B35E-6C921864B314}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFD95F8"/>
@@ -468,15 +471,15 @@
   <dimension ref="A6:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -502,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -531,7 +534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -547,7 +550,7 @@
       <c r="E8" s="7">
         <v>19</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="13">
         <v>20</v>
       </c>
       <c r="G8" s="1">
@@ -557,14 +560,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>23</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>24</v>
       </c>
       <c r="D9" s="1">
@@ -583,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>29</v>
       </c>
@@ -597,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="8">
         <v>1</v>
       </c>
@@ -611,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -637,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -660,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -683,7 +686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>26</v>
       </c>
